--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E505AEE5-BB95-4DC2-8FFF-E10247392209}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{109A36C1-19B5-46D9-9A78-9F1AFAFD095C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>initRotation</t>
+  </si>
+  <si>
+    <t>hitSpherePosition</t>
+  </si>
+  <si>
+    <t>hitSphereSize</t>
   </si>
 </sst>
 </file>
@@ -926,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,9 +953,11 @@
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1024,6 +1032,24 @@
       </c>
       <c r="Y1">
         <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{109A36C1-19B5-46D9-9A78-9F1AFAFD095C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495C5D37-16DF-479D-BF32-0A88EAC7F90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>obj</t>
   </si>
   <si>
-    <t>texture</t>
-  </si>
-  <si>
     <t>break</t>
   </si>
   <si>
@@ -74,12 +71,15 @@
   </si>
   <si>
     <t>hitSphereSize</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,37 +968,37 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
       <c r="O1">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S1">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA1">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AD1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE1">
         <v>1</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495C5D37-16DF-479D-BF32-0A88EAC7F90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634392F-782C-44CC-AF52-D83E356CBACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>default.png</t>
+  </si>
+  <si>
+    <t>road.png</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>icon.png</t>
   </si>
 </sst>
 </file>
@@ -932,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,96 +977,129 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="P1">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q1">
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R4" t="s">
         <v>13</v>
       </c>
-      <c r="S1">
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="T1">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="U1">
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V4" t="s">
         <v>14</v>
       </c>
-      <c r="W1">
+      <c r="W4">
         <v>0</v>
       </c>
-      <c r="X1">
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y1">
+      <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z4" t="s">
         <v>15</v>
       </c>
-      <c r="AA1">
+      <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB1">
+      <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC1">
+      <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD4" t="s">
         <v>16</v>
       </c>
-      <c r="AE1">
+      <c r="AE4">
         <v>1</v>
       </c>
     </row>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634392F-782C-44CC-AF52-D83E356CBACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4D7FC-59A6-4915-8368-C7A49F9CEDE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -34,24 +34,9 @@
     <t>little_car_red_break.png</t>
   </si>
   <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
     <t>little_car_red_light.png</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
     <t>little_car_red_left.png</t>
   </si>
   <si>
@@ -73,12 +58,6 @@
     <t>hitSphereSize</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>png</t>
-  </si>
-  <si>
     <t>texture</t>
   </si>
   <si>
@@ -91,7 +70,82 @@
     <t>icon</t>
   </si>
   <si>
-    <t>icon.png</t>
+    <t>little_car_blue_base.png</t>
+  </si>
+  <si>
+    <t>little_car_blue_light.png</t>
+  </si>
+  <si>
+    <t>little_car_blue_break.png</t>
+  </si>
+  <si>
+    <t>little_car_blue_right.png</t>
+  </si>
+  <si>
+    <t>little_car_blue_left.png</t>
+  </si>
+  <si>
+    <t>little_car_green_base.png</t>
+  </si>
+  <si>
+    <t>little_car_green_light.png</t>
+  </si>
+  <si>
+    <t>little_car_green_break.png</t>
+  </si>
+  <si>
+    <t>little_car_green_right.png</t>
+  </si>
+  <si>
+    <t>little_car_green_left.png</t>
+  </si>
+  <si>
+    <t>Little red car</t>
+  </si>
+  <si>
+    <t>Little green car</t>
+  </si>
+  <si>
+    <t>app_icon.png</t>
+  </si>
+  <si>
+    <t>Default texture</t>
+  </si>
+  <si>
+    <t>Road texture</t>
+  </si>
+  <si>
+    <t>app_logo.png</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Main object</t>
+  </si>
+  <si>
+    <t>base texture</t>
+  </si>
+  <si>
+    <t>light texture</t>
+  </si>
+  <si>
+    <t>break texture</t>
+  </si>
+  <si>
+    <t>right texture</t>
+  </si>
+  <si>
+    <t>left texture</t>
   </si>
 </sst>
 </file>
@@ -593,8 +647,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,160 +1007,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="17.5703125" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H7" t="s">
         <v>20</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE4">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4D7FC-59A6-4915-8368-C7A49F9CEDE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74CD74A-C50C-48E3-913F-5D120FFE7756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74CD74A-C50C-48E3-913F-5D120FFE7756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD16B06C-6DB4-47AD-9244-4A80A535DEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="58">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -146,6 +146,54 @@
   </si>
   <si>
     <t>left texture</t>
+  </si>
+  <si>
+    <t>Big tree</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>big_tree.obj</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>big_tree.png</t>
+  </si>
+  <si>
+    <t>white.png</t>
+  </si>
+  <si>
+    <t>White texture</t>
+  </si>
+  <si>
+    <t>0.0f</t>
+  </si>
+  <si>
+    <t>1.0f</t>
+  </si>
+  <si>
+    <t>0.1f</t>
+  </si>
+  <si>
+    <t>Round desk</t>
+  </si>
+  <si>
+    <t>desk_round.obj</t>
+  </si>
+  <si>
+    <t>desk_round.png</t>
+  </si>
+  <si>
+    <t>Square desk</t>
+  </si>
+  <si>
+    <t>desk_square.obj</t>
+  </si>
+  <si>
+    <t>desk_square.png</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,20 +1068,20 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
     <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1095,6 +1143,60 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1106,6 +1208,60 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1117,211 +1273,579 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD16B06C-6DB4-47AD-9244-4A80A535DEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28ABB91F-8861-42D0-8E29-DED0132A5966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="87">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -148,27 +148,15 @@
     <t>left texture</t>
   </si>
   <si>
-    <t>Big tree</t>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
-    <t>big_tree.obj</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>big_tree.png</t>
-  </si>
-  <si>
     <t>white.png</t>
   </si>
   <si>
-    <t>White texture</t>
-  </si>
-  <si>
     <t>0.0f</t>
   </si>
   <si>
@@ -194,6 +182,105 @@
   </si>
   <si>
     <t>desk_square.png</t>
+  </si>
+  <si>
+    <t>medium_car.obj</t>
+  </si>
+  <si>
+    <t>sphere_mark.obj</t>
+  </si>
+  <si>
+    <t>Mark sphere</t>
+  </si>
+  <si>
+    <t>medium_car_yellow_base.png</t>
+  </si>
+  <si>
+    <t>medium_car_purple_base.png</t>
+  </si>
+  <si>
+    <t>medium_car_green_base.png</t>
+  </si>
+  <si>
+    <t>Medium red car</t>
+  </si>
+  <si>
+    <t>Medium green car</t>
+  </si>
+  <si>
+    <t>Medium purple car</t>
+  </si>
+  <si>
+    <t>Little blue car</t>
+  </si>
+  <si>
+    <t>Big tree 01</t>
+  </si>
+  <si>
+    <t>big_tree_01.obj</t>
+  </si>
+  <si>
+    <t>big_tree_01.png</t>
+  </si>
+  <si>
+    <t>Big tree 02</t>
+  </si>
+  <si>
+    <t>big_tree_02.obj</t>
+  </si>
+  <si>
+    <t>big_tree_02.png</t>
+  </si>
+  <si>
+    <t>large_car_yellow_base.png</t>
+  </si>
+  <si>
+    <t>large_car_blue_base.png</t>
+  </si>
+  <si>
+    <t>large_car_green_base.png</t>
+  </si>
+  <si>
+    <t>large_car.obj</t>
+  </si>
+  <si>
+    <t>Large yellow car</t>
+  </si>
+  <si>
+    <t>Large blue car</t>
+  </si>
+  <si>
+    <t>Large green car</t>
+  </si>
+  <si>
+    <t>bus.obj</t>
+  </si>
+  <si>
+    <t>bus_yellow_base.png</t>
+  </si>
+  <si>
+    <t>bus_gray_base.png</t>
+  </si>
+  <si>
+    <t>bus_blue_base.png</t>
+  </si>
+  <si>
+    <t>Bus yellow</t>
+  </si>
+  <si>
+    <t>Bus blue</t>
+  </si>
+  <si>
+    <t>bus gray</t>
+  </si>
+  <si>
+    <t>Double family house</t>
+  </si>
+  <si>
+    <t>double_family_house.obj</t>
+  </si>
+  <si>
+    <t>double_family_house.png</t>
   </si>
 </sst>
 </file>
@@ -1055,20 +1142,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
@@ -1135,717 +1223,1432 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C37" t="s">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" t="s">
-        <v>50</v>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U12" t="s">
-        <v>50</v>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28ABB91F-8861-42D0-8E29-DED0132A5966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51B70D7-9197-4D27-AB46-4D310F8FD6AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="99">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -281,13 +281,49 @@
   </si>
   <si>
     <t>double_family_house.png</t>
+  </si>
+  <si>
+    <t>flat_family_house.obj</t>
+  </si>
+  <si>
+    <t>Flat family house</t>
+  </si>
+  <si>
+    <t>flat_family_house.png</t>
+  </si>
+  <si>
+    <t>High family house</t>
+  </si>
+  <si>
+    <t>high_family_house.obj</t>
+  </si>
+  <si>
+    <t>high_family_house.png</t>
+  </si>
+  <si>
+    <t>High family house 02</t>
+  </si>
+  <si>
+    <t>high_family_house_02.obj</t>
+  </si>
+  <si>
+    <t>high_family_house_02.png</t>
+  </si>
+  <si>
+    <t>Simple family house</t>
+  </si>
+  <si>
+    <t>simple_family_house.obj</t>
+  </si>
+  <si>
+    <t>simple_family_house.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +471,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1145,7 +1188,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,6 +1914,266 @@
         <v>46</v>
       </c>
     </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
@@ -2658,6 +2961,7 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51B70D7-9197-4D27-AB46-4D310F8FD6AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10BB6324-B458-493C-9C92-8227B47047EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="100">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Main object</t>
   </si>
   <si>
-    <t>base texture</t>
-  </si>
-  <si>
     <t>light texture</t>
   </si>
   <si>
@@ -317,6 +314,12 @@
   </si>
   <si>
     <t>simple_family_house.png</t>
+  </si>
+  <si>
+    <t>Base texture</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1185,37 +1188,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="3" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1226,45 +1229,48 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1275,61 +1281,64 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1340,61 +1349,64 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1405,61 +1417,64 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1470,711 +1485,744 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" t="s">
-        <v>46</v>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" t="s">
-        <v>46</v>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" t="s">
-        <v>46</v>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" t="s">
-        <v>46</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s">
-        <v>46</v>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s">
-        <v>46</v>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" t="s">
-        <v>46</v>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" t="s">
-        <v>45</v>
-      </c>
-      <c r="T14" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -2185,63 +2233,66 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>3</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>6</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>5</v>
       </c>
-      <c r="I35" t="s">
-        <v>45</v>
-      </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U35" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V35" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2250,61 +2301,64 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>19</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="I36" t="s">
-        <v>45</v>
-      </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U36" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2315,651 +2369,681 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
         <v>21</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>22</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>23</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>24</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>25</v>
       </c>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U37" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V37" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O38" t="s">
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U38" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V38" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O39" t="s">
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U39" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V39" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O40" t="s">
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U40" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V40" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U41" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V41" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U42" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V42" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O43" t="s">
         <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U43" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V43" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
-      </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O44" t="s">
         <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U44" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V44" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O45" t="s">
         <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U45" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V45" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O46" t="s">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U46" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="V46" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10BB6324-B458-493C-9C92-8227B47047EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED92AB-E4B0-4387-8118-B94F95B57233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="121">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -154,15 +154,6 @@
     <t>white.png</t>
   </si>
   <si>
-    <t>0.0f</t>
-  </si>
-  <si>
-    <t>1.0f</t>
-  </si>
-  <si>
-    <t>0.1f</t>
-  </si>
-  <si>
     <t>Round desk</t>
   </si>
   <si>
@@ -319,7 +310,79 @@
     <t>Base texture</t>
   </si>
   <si>
-    <t>%</t>
+    <t>sphere_mark_mini.png</t>
+  </si>
+  <si>
+    <t>big_tree_01_mini.png</t>
+  </si>
+  <si>
+    <t>big_tree_02_mini.png</t>
+  </si>
+  <si>
+    <t>desk_round_mini.png</t>
+  </si>
+  <si>
+    <t>desk_square_mini.png</t>
+  </si>
+  <si>
+    <t>double_family_house_mini.png</t>
+  </si>
+  <si>
+    <t>flat_family_house_mini.png</t>
+  </si>
+  <si>
+    <t>high_family_house_mini.png</t>
+  </si>
+  <si>
+    <t>high_family_house_02_mini.png</t>
+  </si>
+  <si>
+    <t>simple_family_house_mini.png</t>
+  </si>
+  <si>
+    <t>little_car_mini.png</t>
+  </si>
+  <si>
+    <t>medium_car_mini.png</t>
+  </si>
+  <si>
+    <t>large_car_mini.png</t>
+  </si>
+  <si>
+    <t>bus_mini.png</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>Road tool icon</t>
+  </si>
+  <si>
+    <t>road_mini.png</t>
   </si>
 </sst>
 </file>
@@ -828,11 +891,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1188,16 +1253,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="3" max="4" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
@@ -1232,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
         <v>37</v>
@@ -1544,19 +1610,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1612,19 +1678,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1639,60 +1705,60 @@
         <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1707,60 +1773,60 @@
         <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V8" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -1775,60 +1841,60 @@
         <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V9" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -1843,60 +1909,60 @@
         <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V10" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
@@ -1911,60 +1977,60 @@
         <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V11" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -1979,60 +2045,60 @@
         <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
@@ -2047,60 +2113,60 @@
         <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V13" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
@@ -2115,60 +2181,60 @@
         <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V14" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>42</v>
@@ -2183,859 +2249,927 @@
         <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="T15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="U15" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V15" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G17" t="s">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H17" t="s">
         <v>6</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I17" t="s">
         <v>5</v>
       </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" t="s">
-        <v>44</v>
-      </c>
-      <c r="T35" t="s">
-        <v>44</v>
-      </c>
-      <c r="U35" t="s">
-        <v>44</v>
-      </c>
-      <c r="V35" t="s">
-        <v>45</v>
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N36" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" t="s">
-        <v>44</v>
-      </c>
-      <c r="T36" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" t="s">
-        <v>44</v>
-      </c>
-      <c r="V36" t="s">
-        <v>45</v>
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G19" t="s">
         <v>23</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H19" t="s">
         <v>24</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="J37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" t="s">
-        <v>44</v>
-      </c>
-      <c r="T37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U37" t="s">
-        <v>44</v>
-      </c>
-      <c r="V37" t="s">
-        <v>45</v>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" t="s">
+        <v>110</v>
+      </c>
+      <c r="T19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" t="s">
-        <v>45</v>
-      </c>
-      <c r="N38" t="s">
-        <v>45</v>
-      </c>
-      <c r="O38" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" t="s">
-        <v>44</v>
-      </c>
-      <c r="T38" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" t="s">
-        <v>44</v>
-      </c>
-      <c r="V38" t="s">
-        <v>45</v>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" t="s">
+        <v>110</v>
+      </c>
+      <c r="T20" t="s">
+        <v>110</v>
+      </c>
+      <c r="U20" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" t="s">
+        <v>110</v>
+      </c>
+      <c r="T21" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" t="s">
-        <v>45</v>
-      </c>
-      <c r="N39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" t="s">
-        <v>45</v>
-      </c>
-      <c r="P39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" t="s">
-        <v>44</v>
-      </c>
-      <c r="V39" t="s">
-        <v>45</v>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" t="s">
+        <v>110</v>
+      </c>
+      <c r="T22" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" t="s">
-        <v>45</v>
-      </c>
-      <c r="P40" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>44</v>
-      </c>
-      <c r="R40" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" t="s">
-        <v>44</v>
-      </c>
-      <c r="T40" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" t="s">
-        <v>44</v>
-      </c>
-      <c r="V40" t="s">
-        <v>45</v>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T23" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" t="s">
+        <v>110</v>
+      </c>
+      <c r="T24" t="s">
+        <v>110</v>
+      </c>
+      <c r="U24" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>110</v>
+      </c>
+      <c r="R25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" t="s">
+        <v>110</v>
+      </c>
+      <c r="T25" t="s">
+        <v>110</v>
+      </c>
+      <c r="U25" t="s">
+        <v>110</v>
+      </c>
+      <c r="V25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>110</v>
+      </c>
+      <c r="R26" t="s">
+        <v>110</v>
+      </c>
+      <c r="S26" t="s">
+        <v>110</v>
+      </c>
+      <c r="T26" t="s">
+        <v>110</v>
+      </c>
+      <c r="U26" t="s">
+        <v>110</v>
+      </c>
+      <c r="V26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41" t="s">
-        <v>44</v>
-      </c>
-      <c r="T41" t="s">
-        <v>44</v>
-      </c>
-      <c r="U41" t="s">
-        <v>44</v>
-      </c>
-      <c r="V41" t="s">
-        <v>45</v>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" t="s">
+        <v>110</v>
+      </c>
+      <c r="T27" t="s">
+        <v>110</v>
+      </c>
+      <c r="U27" t="s">
+        <v>110</v>
+      </c>
+      <c r="V27" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" t="s">
-        <v>45</v>
-      </c>
-      <c r="P42" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" t="s">
-        <v>44</v>
-      </c>
-      <c r="T42" t="s">
-        <v>44</v>
-      </c>
-      <c r="U42" t="s">
-        <v>44</v>
-      </c>
-      <c r="V42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>44</v>
-      </c>
-      <c r="R43" t="s">
-        <v>44</v>
-      </c>
-      <c r="S43" t="s">
-        <v>44</v>
-      </c>
-      <c r="T43" t="s">
-        <v>44</v>
-      </c>
-      <c r="U43" t="s">
-        <v>44</v>
-      </c>
-      <c r="V43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" t="s">
-        <v>45</v>
-      </c>
-      <c r="N44" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>44</v>
-      </c>
-      <c r="R44" t="s">
-        <v>44</v>
-      </c>
-      <c r="S44" t="s">
-        <v>44</v>
-      </c>
-      <c r="T44" t="s">
-        <v>44</v>
-      </c>
-      <c r="U44" t="s">
-        <v>44</v>
-      </c>
-      <c r="V44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N45" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" t="s">
-        <v>45</v>
-      </c>
-      <c r="P45" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>44</v>
-      </c>
-      <c r="R45" t="s">
-        <v>44</v>
-      </c>
-      <c r="S45" t="s">
-        <v>44</v>
-      </c>
-      <c r="T45" t="s">
-        <v>44</v>
-      </c>
-      <c r="U45" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" t="s">
-        <v>45</v>
-      </c>
-      <c r="N46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" t="s">
-        <v>45</v>
-      </c>
-      <c r="P46" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>44</v>
-      </c>
-      <c r="R46" t="s">
-        <v>44</v>
-      </c>
-      <c r="S46" t="s">
-        <v>44</v>
-      </c>
-      <c r="T46" t="s">
-        <v>44</v>
-      </c>
-      <c r="U46" t="s">
-        <v>44</v>
-      </c>
-      <c r="V46" t="s">
-        <v>45</v>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>110</v>
+      </c>
+      <c r="R28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" t="s">
+        <v>110</v>
+      </c>
+      <c r="V28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3047,5 +3181,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED92AB-E4B0-4387-8118-B94F95B57233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE968803-B9D9-4E17-8B36-263930A52AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="130">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -383,6 +383,33 @@
   </si>
   <si>
     <t>road_mini.png</t>
+  </si>
+  <si>
+    <t>moveSpherePosition</t>
+  </si>
+  <si>
+    <t>moveSphereSize</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>-0.9</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -893,11 +920,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1253,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,1900 +1311,2233 @@
     <col min="22" max="22" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" t="s">
-        <v>110</v>
-      </c>
-      <c r="T8" t="s">
-        <v>110</v>
-      </c>
-      <c r="U8" t="s">
-        <v>110</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="P8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="P9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" t="s">
-        <v>110</v>
-      </c>
-      <c r="S10" t="s">
-        <v>110</v>
-      </c>
-      <c r="T10" t="s">
-        <v>110</v>
-      </c>
-      <c r="U10" t="s">
-        <v>110</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="P10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" t="s">
-        <v>110</v>
-      </c>
-      <c r="S11" t="s">
-        <v>110</v>
-      </c>
-      <c r="T11" t="s">
-        <v>110</v>
-      </c>
-      <c r="U11" t="s">
-        <v>110</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S12" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" t="s">
-        <v>110</v>
-      </c>
-      <c r="U12" t="s">
-        <v>110</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="P12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" t="s">
-        <v>110</v>
-      </c>
-      <c r="T13" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="P13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S14" t="s">
-        <v>110</v>
-      </c>
-      <c r="T14" t="s">
-        <v>110</v>
-      </c>
-      <c r="U14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="P14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" t="s">
-        <v>110</v>
-      </c>
-      <c r="S15" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" t="s">
-        <v>110</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="P15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" t="s">
-        <v>110</v>
-      </c>
-      <c r="S16" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16" t="s">
-        <v>110</v>
-      </c>
-      <c r="U16" t="s">
-        <v>110</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="P16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" t="s">
-        <v>110</v>
-      </c>
-      <c r="S17" t="s">
-        <v>110</v>
-      </c>
-      <c r="T17" t="s">
-        <v>110</v>
-      </c>
-      <c r="U17" t="s">
-        <v>110</v>
-      </c>
-      <c r="V17" t="s">
-        <v>112</v>
+      <c r="J17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" t="s">
-        <v>110</v>
-      </c>
-      <c r="S18" t="s">
-        <v>110</v>
-      </c>
-      <c r="T18" t="s">
-        <v>110</v>
-      </c>
-      <c r="U18" t="s">
-        <v>110</v>
-      </c>
-      <c r="V18" t="s">
-        <v>112</v>
+      <c r="J18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>110</v>
-      </c>
-      <c r="R19" t="s">
-        <v>110</v>
-      </c>
-      <c r="S19" t="s">
-        <v>110</v>
-      </c>
-      <c r="T19" t="s">
-        <v>110</v>
-      </c>
-      <c r="U19" t="s">
-        <v>110</v>
-      </c>
-      <c r="V19" t="s">
-        <v>112</v>
+      <c r="J19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20" t="s">
-        <v>112</v>
-      </c>
-      <c r="P20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" t="s">
-        <v>110</v>
-      </c>
-      <c r="S20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T20" t="s">
-        <v>110</v>
-      </c>
-      <c r="U20" t="s">
-        <v>110</v>
-      </c>
-      <c r="V20" t="s">
-        <v>112</v>
+      <c r="J20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J21" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" t="s">
-        <v>112</v>
-      </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S21" t="s">
-        <v>110</v>
-      </c>
-      <c r="T21" t="s">
-        <v>110</v>
-      </c>
-      <c r="U21" t="s">
-        <v>110</v>
-      </c>
-      <c r="V21" t="s">
-        <v>112</v>
+      <c r="J21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J22" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" t="s">
-        <v>112</v>
-      </c>
-      <c r="N22" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22" t="s">
-        <v>112</v>
-      </c>
-      <c r="P22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>110</v>
-      </c>
-      <c r="R22" t="s">
-        <v>110</v>
-      </c>
-      <c r="S22" t="s">
-        <v>110</v>
-      </c>
-      <c r="T22" t="s">
-        <v>110</v>
-      </c>
-      <c r="U22" t="s">
-        <v>110</v>
-      </c>
-      <c r="V22" t="s">
-        <v>112</v>
+      <c r="J22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" t="s">
-        <v>112</v>
-      </c>
-      <c r="N23" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" t="s">
-        <v>112</v>
-      </c>
-      <c r="P23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" t="s">
-        <v>110</v>
-      </c>
-      <c r="S23" t="s">
-        <v>110</v>
-      </c>
-      <c r="T23" t="s">
-        <v>110</v>
-      </c>
-      <c r="U23" t="s">
-        <v>110</v>
-      </c>
-      <c r="V23" t="s">
-        <v>112</v>
+      <c r="J23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" t="s">
-        <v>110</v>
-      </c>
-      <c r="S24" t="s">
-        <v>110</v>
-      </c>
-      <c r="T24" t="s">
-        <v>110</v>
-      </c>
-      <c r="U24" t="s">
-        <v>110</v>
-      </c>
-      <c r="V24" t="s">
-        <v>112</v>
+      <c r="J24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" t="s">
-        <v>110</v>
-      </c>
-      <c r="M25" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" t="s">
-        <v>112</v>
-      </c>
-      <c r="O25" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>110</v>
-      </c>
-      <c r="R25" t="s">
-        <v>110</v>
-      </c>
-      <c r="S25" t="s">
-        <v>110</v>
-      </c>
-      <c r="T25" t="s">
-        <v>110</v>
-      </c>
-      <c r="U25" t="s">
-        <v>110</v>
-      </c>
-      <c r="V25" t="s">
-        <v>112</v>
+      <c r="J25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N26" t="s">
-        <v>112</v>
-      </c>
-      <c r="O26" t="s">
-        <v>112</v>
-      </c>
-      <c r="P26" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>110</v>
-      </c>
-      <c r="R26" t="s">
-        <v>110</v>
-      </c>
-      <c r="S26" t="s">
-        <v>110</v>
-      </c>
-      <c r="T26" t="s">
-        <v>110</v>
-      </c>
-      <c r="U26" t="s">
-        <v>110</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="J26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J27" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" t="s">
-        <v>110</v>
-      </c>
-      <c r="L27" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27" t="s">
-        <v>112</v>
-      </c>
-      <c r="N27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O27" t="s">
-        <v>112</v>
-      </c>
-      <c r="P27" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>110</v>
-      </c>
-      <c r="R27" t="s">
-        <v>110</v>
-      </c>
-      <c r="S27" t="s">
-        <v>110</v>
-      </c>
-      <c r="T27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U27" t="s">
-        <v>110</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="J27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" t="s">
-        <v>112</v>
-      </c>
-      <c r="N28" t="s">
-        <v>112</v>
-      </c>
-      <c r="O28" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" t="s">
-        <v>110</v>
-      </c>
-      <c r="S28" t="s">
-        <v>110</v>
-      </c>
-      <c r="T28" t="s">
-        <v>110</v>
-      </c>
-      <c r="U28" t="s">
-        <v>110</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="J28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
+    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE968803-B9D9-4E17-8B36-263930A52AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB056202-1159-42CB-959E-E48A12BD5ECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="129">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>-0.1</t>
-  </si>
-  <si>
-    <t>Road tool icon</t>
   </si>
   <si>
     <t>road_mini.png</t>
@@ -1280,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,12 +1360,12 @@
         <v>11</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1542,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
@@ -1693,19 +1690,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
@@ -1773,19 +1770,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>42</v>
@@ -1800,72 +1797,72 @@
         <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>42</v>
@@ -1933,19 +1930,19 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>42</v>
@@ -1962,20 +1959,20 @@
       <c r="J9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>110</v>
+      <c r="K9" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>110</v>
@@ -2013,19 +2010,19 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>42</v>
@@ -2049,16 +2046,16 @@
         <v>110</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>110</v>
@@ -2093,19 +2090,19 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>42</v>
@@ -2122,23 +2119,23 @@
       <c r="J11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>118</v>
+      <c r="K11" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>110</v>
@@ -2173,19 +2170,19 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
@@ -2253,19 +2250,19 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>42</v>
@@ -2333,19 +2330,19 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>42</v>
@@ -2413,19 +2410,19 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
@@ -2493,31 +2490,31 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>110</v>
@@ -2529,51 +2526,51 @@
         <v>110</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Y16" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -2585,19 +2582,19 @@
         <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>110</v>
@@ -2636,10 +2633,10 @@
         <v>110</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>115</v>
@@ -2648,12 +2645,12 @@
         <v>110</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -2665,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>110</v>
@@ -2716,10 +2713,10 @@
         <v>110</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>115</v>
@@ -2728,36 +2725,36 @@
         <v>110</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>110</v>
@@ -2796,10 +2793,10 @@
         <v>110</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>115</v>
@@ -2808,12 +2805,12 @@
         <v>110</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2825,19 +2822,19 @@
         <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>110</v>
@@ -2876,7 +2873,7 @@
         <v>110</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>110</v>
@@ -2888,12 +2885,12 @@
         <v>110</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -2905,19 +2902,19 @@
         <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>110</v>
@@ -2956,7 +2953,7 @@
         <v>110</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>110</v>
@@ -2968,36 +2965,36 @@
         <v>110</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>110</v>
@@ -3029,31 +3026,31 @@
       <c r="S22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>110</v>
+      <c r="T22" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>110</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -3065,19 +3062,19 @@
         <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>110</v>
@@ -3110,19 +3107,19 @@
         <v>110</v>
       </c>
       <c r="T23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>110</v>
@@ -3133,7 +3130,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -3145,19 +3142,19 @@
         <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>110</v>
@@ -3190,19 +3187,19 @@
         <v>110</v>
       </c>
       <c r="T24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>110</v>
@@ -3213,31 +3210,31 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>110</v>
@@ -3269,20 +3266,20 @@
       <c r="S25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>127</v>
+      <c r="T25" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>110</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>110</v>
@@ -3293,7 +3290,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -3305,19 +3302,19 @@
         <v>109</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>110</v>
@@ -3362,18 +3359,18 @@
         <v>110</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -3385,19 +3382,19 @@
         <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>110</v>
@@ -3442,93 +3439,13 @@
         <v>110</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C7DDE844-F5F5-4D74-A0A2-9B25B1DF35F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B82607E-EA7C-47C7-B6F2-12CB11B855A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="146">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1999,7 @@
         <v>143</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>143</v>
@@ -2085,13 +2091,13 @@
         <v>106</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>143</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>143</v>
@@ -2189,7 +2195,7 @@
         <v>143</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>143</v>
@@ -2287,7 +2293,7 @@
         <v>143</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>143</v>
@@ -2385,7 +2391,7 @@
         <v>143</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>143</v>
@@ -2483,7 +2489,7 @@
         <v>143</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>143</v>
@@ -2581,7 +2587,7 @@
         <v>143</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>143</v>
@@ -2679,7 +2685,7 @@
         <v>143</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>143</v>
@@ -2777,7 +2783,7 @@
         <v>143</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>143</v>
@@ -2875,7 +2881,7 @@
         <v>143</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>143</v>
@@ -2973,7 +2979,7 @@
         <v>143</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>143</v>
@@ -3071,7 +3077,7 @@
         <v>143</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>143</v>
@@ -3169,7 +3175,7 @@
         <v>143</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>143</v>
@@ -3267,7 +3273,7 @@
         <v>143</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>143</v>
@@ -3365,7 +3371,7 @@
         <v>143</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>143</v>
@@ -3463,7 +3469,7 @@
         <v>143</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>143</v>
@@ -3561,7 +3567,7 @@
         <v>143</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>143</v>
@@ -3659,7 +3665,7 @@
         <v>143</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>143</v>
@@ -3757,7 +3763,7 @@
         <v>143</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>143</v>
@@ -3855,7 +3861,7 @@
         <v>143</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>143</v>
@@ -3953,7 +3959,7 @@
         <v>143</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>143</v>
@@ -4051,7 +4057,7 @@
         <v>143</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>143</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B82607E-EA7C-47C7-B6F2-12CB11B855A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E409F1-8496-44B8-A5B2-D712BB73650C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="145">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2088,7 @@
         <v>106</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>143</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E409F1-8496-44B8-A5B2-D712BB73650C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F427CA-9F72-418D-A954-1DA2BA09C1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="148">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>FirstCene</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>mark</t>
   </si>
 </sst>
 </file>
@@ -977,10 +986,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,108 +1380,114 @@
     <col min="24" max="24" width="13.140625" style="1" customWidth="1"/>
     <col min="25" max="27" width="9.140625" style="1"/>
     <col min="28" max="28" width="16.42578125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="32" width="9.140625" style="1"/>
+    <col min="33" max="33" width="9.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
         <v>9</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="4">
         <v>11</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="4">
         <v>12</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="4">
         <v>14</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="4">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="4">
         <v>17</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="4">
         <v>18</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="4">
         <v>19</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="4">
         <v>20</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="4">
         <v>21</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="4">
         <v>22</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="4">
         <v>23</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="4">
         <v>24</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="4">
         <v>25</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="4">
         <v>26</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="4">
         <v>27</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AC1" s="4">
         <v>28</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="4">
         <v>29</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AE1" s="4">
         <v>30</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AF1" s="4">
         <v>31</v>
       </c>
+      <c r="AG1" s="4">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
@@ -1503,35 +1518,35 @@
       <c r="J2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
       <c r="X2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
       <c r="AB2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1547,8 +1562,11 @@
       <c r="AF2" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="AG2" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>-1</v>
       </c>
@@ -1645,8 +1663,11 @@
       <c r="AF3" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AG3" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-1</v>
       </c>
@@ -1743,8 +1764,11 @@
       <c r="AF4" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AG4" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>-1</v>
       </c>
@@ -1841,8 +1865,11 @@
       <c r="AF5" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AG5" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -1939,8 +1966,11 @@
       <c r="AF6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AG6" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1948,7 +1978,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -2037,8 +2067,11 @@
       <c r="AF7" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG7" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2135,8 +2168,11 @@
       <c r="AF8" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG8" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2233,8 +2269,11 @@
       <c r="AF9" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG9" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2242,7 +2281,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -2331,8 +2370,11 @@
       <c r="AF10" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG10" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -2340,7 +2382,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -2429,8 +2471,11 @@
       <c r="AF11" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG11" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -2527,8 +2572,11 @@
       <c r="AF12" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG12" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -2625,8 +2673,11 @@
       <c r="AF13" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG13" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2723,8 +2774,11 @@
       <c r="AF14" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG14" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -2821,8 +2875,11 @@
       <c r="AF15" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG15" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2919,8 +2976,11 @@
       <c r="AF16" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG16" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -3017,8 +3077,11 @@
       <c r="AF17" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG17" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -3115,8 +3178,11 @@
       <c r="AF18" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG18" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -3213,8 +3279,11 @@
       <c r="AF19" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG19" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -3311,8 +3380,11 @@
       <c r="AF20" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG20" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -3409,8 +3481,11 @@
       <c r="AF21" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG21" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -3507,8 +3582,11 @@
       <c r="AF22" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG22" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -3605,8 +3683,11 @@
       <c r="AF23" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG23" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -3703,8 +3784,11 @@
       <c r="AF24" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG24" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -3801,8 +3885,11 @@
       <c r="AF25" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG25" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -3899,8 +3986,11 @@
       <c r="AF26" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG26" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -3997,8 +4087,11 @@
       <c r="AF27" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AG27" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -4094,6 +4187,9 @@
       </c>
       <c r="AF28" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F427CA-9F72-418D-A954-1DA2BA09C1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{505E62F7-2D06-400A-9815-BED8E0839876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2041,7 @@
         <v>105</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>105</v>
@@ -2142,7 +2142,7 @@
         <v>105</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>105</v>
@@ -2243,7 +2243,7 @@
         <v>105</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>105</v>
@@ -2344,7 +2344,7 @@
         <v>105</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>105</v>
@@ -2445,7 +2445,7 @@
         <v>105</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>105</v>
@@ -2546,7 +2546,7 @@
         <v>105</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>105</v>
@@ -2647,7 +2647,7 @@
         <v>105</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>105</v>
@@ -2748,7 +2748,7 @@
         <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>105</v>
@@ -2849,7 +2849,7 @@
         <v>105</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>105</v>
@@ -2950,7 +2950,7 @@
         <v>105</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>105</v>
@@ -3960,7 +3960,7 @@
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>105</v>
@@ -4061,7 +4061,7 @@
         <v>105</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>105</v>
@@ -4162,7 +4162,7 @@
         <v>105</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>105</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505E62F7-2D06-400A-9815-BED8E0839876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{886FD5C6-D86B-4073-9AC8-B7D57F2F2CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{886FD5C6-D86B-4073-9AC8-B7D57F2F2CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA71212-4448-495C-91B7-5F32B6CC39AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Q7" sqref="Q7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA71212-4448-495C-91B7-5F32B6CC39AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01090510-CC39-45E9-A6E4-DB988FF39B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:T7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,13 +2011,13 @@
         <v>105</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>105</v>
@@ -2041,7 +2041,7 @@
         <v>105</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>105</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELTE\Szakdoga\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01090510-CC39-45E9-A6E4-DB988FF39B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846F68C-B795-404F-B9AC-028D5777DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="153">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -464,6 +464,21 @@
   </si>
   <si>
     <t>mark</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Road circle</t>
+  </si>
+  <si>
+    <t>road_circle.obj</t>
+  </si>
+  <si>
+    <t>road_circle.png</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -1347,46 +1362,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" style="1" customWidth="1"/>
     <col min="16" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="1" customWidth="1"/>
-    <col min="25" max="27" width="9.140625" style="1"/>
-    <col min="28" max="28" width="16.42578125" style="1" customWidth="1"/>
-    <col min="29" max="32" width="9.140625" style="1"/>
-    <col min="33" max="33" width="9.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="4.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="1" customWidth="1"/>
+    <col min="25" max="27" width="9.109375" style="1"/>
+    <col min="28" max="28" width="16.44140625" style="1" customWidth="1"/>
+    <col min="29" max="32" width="9.109375" style="1"/>
+    <col min="33" max="33" width="9.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-1</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-1</v>
       </c>
@@ -1768,7 +1783,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-1</v>
       </c>
@@ -1869,7 +1884,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2071,7 +2086,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2172,7 +2187,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2273,7 +2288,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -2475,7 +2490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -2576,7 +2591,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2980,7 +2995,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -3081,7 +3096,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -3182,7 +3197,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -3384,7 +3399,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -3485,7 +3500,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -3586,7 +3601,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -3687,7 +3702,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -3788,7 +3803,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -3889,7 +3904,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -3990,7 +4005,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4091,7 +4106,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -4189,6 +4204,107 @@
         <v>107</v>
       </c>
       <c r="AG28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG29" s="1" t="s">
         <v>143</v>
       </c>
     </row>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846F68C-B795-404F-B9AC-028D5777DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE9C118-757B-4678-B25A-195952111B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="160">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -479,6 +479,27 @@
   </si>
   <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Start sign</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Stop sign</t>
+  </si>
+  <si>
+    <t>sign.obj</t>
+  </si>
+  <si>
+    <t>start_sign.png</t>
+  </si>
+  <si>
+    <t>stop_sign.png</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4308,6 +4329,208 @@
         <v>143</v>
       </c>
     </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="K2:M2"/>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE9C118-757B-4678-B25A-195952111B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F32C4-A236-48C6-8849-200E1A70A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="178">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -340,166 +340,220 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>road_mini.png</t>
+  </si>
+  <si>
+    <t>moveSpherePosition</t>
+  </si>
+  <si>
+    <t>moveSphereSize</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>-0.9</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>color R</t>
+  </si>
+  <si>
+    <t>color G</t>
+  </si>
+  <si>
+    <t>Color B</t>
+  </si>
+  <si>
+    <t>Color A</t>
+  </si>
+  <si>
+    <t>Bus gray</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>little_car_red_mini.png</t>
+  </si>
+  <si>
+    <t>little_car_blue_mini.png</t>
+  </si>
+  <si>
+    <t>little_car_green_mini.png</t>
+  </si>
+  <si>
+    <t>medium_car_yellow_mini.png</t>
+  </si>
+  <si>
+    <t>medium_car_purple_mini.png</t>
+  </si>
+  <si>
+    <t>medium_car_green_mini.png</t>
+  </si>
+  <si>
+    <t>large_car_yellow_mini.png</t>
+  </si>
+  <si>
+    <t>large_car_blue_mini.png</t>
+  </si>
+  <si>
+    <t>large_car_green_mini.png</t>
+  </si>
+  <si>
+    <t>bus_yellow_mini.png</t>
+  </si>
+  <si>
+    <t>bus_blue_mini.png</t>
+  </si>
+  <si>
+    <t>bus_gray_mini.png</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FirstCene</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Road circle</t>
+  </si>
+  <si>
+    <t>road_circle.obj</t>
+  </si>
+  <si>
+    <t>road_circle.png</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Start sign</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Stop sign</t>
+  </si>
+  <si>
+    <t>sign.obj</t>
+  </si>
+  <si>
+    <t>start_sign.png</t>
+  </si>
+  <si>
+    <t>stop_sign.png</t>
+  </si>
+  <si>
+    <t>big_tree_03.obj</t>
+  </si>
+  <si>
+    <t>big_tree_04.obj</t>
+  </si>
+  <si>
+    <t>Big tree 04</t>
+  </si>
+  <si>
+    <t>Big tree 05</t>
+  </si>
+  <si>
+    <t>Big tree 03</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>start_sign_mini.png</t>
+  </si>
+  <si>
+    <t>stop_sign_mini.png</t>
+  </si>
+  <si>
+    <t>big_tree_03.png</t>
+  </si>
+  <si>
+    <t>big_tree_04.png</t>
+  </si>
+  <si>
+    <t>big_tree_05.obj</t>
+  </si>
+  <si>
+    <t>big_tree_05.png</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>big_tree_03_mini.png</t>
+  </si>
+  <si>
+    <t>big_tree_04_mini.png</t>
+  </si>
+  <si>
+    <t>big_tree_05_mini.png</t>
+  </si>
+  <si>
     <t>0.1</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>road_mini.png</t>
-  </si>
-  <si>
-    <t>moveSpherePosition</t>
-  </si>
-  <si>
-    <t>moveSphereSize</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>-0.9</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>color R</t>
-  </si>
-  <si>
-    <t>color G</t>
-  </si>
-  <si>
-    <t>Color B</t>
-  </si>
-  <si>
-    <t>Color A</t>
-  </si>
-  <si>
-    <t>Bus gray</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>little_car_red_mini.png</t>
-  </si>
-  <si>
-    <t>little_car_blue_mini.png</t>
-  </si>
-  <si>
-    <t>little_car_green_mini.png</t>
-  </si>
-  <si>
-    <t>medium_car_yellow_mini.png</t>
-  </si>
-  <si>
-    <t>medium_car_purple_mini.png</t>
-  </si>
-  <si>
-    <t>medium_car_green_mini.png</t>
-  </si>
-  <si>
-    <t>large_car_yellow_mini.png</t>
-  </si>
-  <si>
-    <t>large_car_blue_mini.png</t>
-  </si>
-  <si>
-    <t>large_car_green_mini.png</t>
-  </si>
-  <si>
-    <t>bus_yellow_mini.png</t>
-  </si>
-  <si>
-    <t>bus_blue_mini.png</t>
-  </si>
-  <si>
-    <t>bus_gray_mini.png</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>FirstCene</t>
-  </si>
-  <si>
-    <t>desk</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Road circle</t>
-  </si>
-  <si>
-    <t>road_circle.obj</t>
-  </si>
-  <si>
-    <t>road_circle.png</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Start sign</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Stop sign</t>
-  </si>
-  <si>
-    <t>sign.obj</t>
-  </si>
-  <si>
-    <t>start_sign.png</t>
-  </si>
-  <si>
-    <t>stop_sign.png</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1579,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
@@ -1579,27 +1633,27 @@
         <v>11</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="AG2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -1700,7 +1754,7 @@
         <v>42</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -1801,7 +1855,7 @@
         <v>42</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -1818,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>42</v>
@@ -1902,7 +1956,7 @@
         <v>42</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -2003,7 +2057,7 @@
         <v>42</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -2014,7 +2068,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -2047,25 +2101,25 @@
         <v>105</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>105</v>
@@ -2077,7 +2131,7 @@
         <v>105</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>105</v>
@@ -2089,22 +2143,22 @@
         <v>105</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -2148,25 +2202,25 @@
         <v>105</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>105</v>
@@ -2178,7 +2232,7 @@
         <v>105</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>105</v>
@@ -2190,22 +2244,22 @@
         <v>105</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -2249,25 +2303,25 @@
         <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>105</v>
@@ -2279,7 +2333,7 @@
         <v>105</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>105</v>
@@ -2291,22 +2345,22 @@
         <v>105</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -2317,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -2344,31 +2398,31 @@
         <v>105</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>105</v>
@@ -2380,7 +2434,7 @@
         <v>105</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>105</v>
@@ -2392,22 +2446,22 @@
         <v>105</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -2418,7 +2472,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -2445,70 +2499,70 @@
         <v>105</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG11" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -2552,25 +2606,25 @@
         <v>105</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>105</v>
@@ -2582,7 +2636,7 @@
         <v>105</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>105</v>
@@ -2594,22 +2648,22 @@
         <v>105</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -2653,25 +2707,25 @@
         <v>105</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>105</v>
@@ -2683,7 +2737,7 @@
         <v>105</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>105</v>
@@ -2695,22 +2749,22 @@
         <v>105</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -2754,25 +2808,25 @@
         <v>105</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>105</v>
@@ -2784,7 +2838,7 @@
         <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>105</v>
@@ -2796,22 +2850,22 @@
         <v>105</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -2855,25 +2909,25 @@
         <v>105</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>105</v>
@@ -2885,7 +2939,7 @@
         <v>105</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>105</v>
@@ -2897,22 +2951,22 @@
         <v>105</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -2956,25 +3010,25 @@
         <v>105</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>105</v>
@@ -2986,7 +3040,7 @@
         <v>105</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>105</v>
@@ -2998,22 +3052,22 @@
         <v>105</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -3030,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2</v>
@@ -3057,25 +3111,25 @@
         <v>105</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>105</v>
@@ -3087,34 +3141,34 @@
         <v>105</v>
       </c>
       <c r="X17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -3131,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -3158,25 +3212,25 @@
         <v>105</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>105</v>
@@ -3188,34 +3242,34 @@
         <v>105</v>
       </c>
       <c r="X18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -3232,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
@@ -3259,25 +3313,25 @@
         <v>105</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>105</v>
@@ -3289,34 +3343,34 @@
         <v>105</v>
       </c>
       <c r="X19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -3333,7 +3387,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>53</v>
@@ -3360,25 +3414,25 @@
         <v>105</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>105</v>
@@ -3390,34 +3444,34 @@
         <v>105</v>
       </c>
       <c r="X20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -3434,7 +3488,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>54</v>
@@ -3461,25 +3515,25 @@
         <v>105</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>105</v>
@@ -3491,34 +3545,34 @@
         <v>105</v>
       </c>
       <c r="X21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -3535,7 +3589,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -3562,25 +3616,25 @@
         <v>105</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>105</v>
@@ -3592,34 +3646,34 @@
         <v>105</v>
       </c>
       <c r="X22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -3636,7 +3690,7 @@
         <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>66</v>
@@ -3663,64 +3717,64 @@
         <v>105</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="V23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Z23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AA23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -3737,7 +3791,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>67</v>
@@ -3764,64 +3818,64 @@
         <v>105</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="V24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Z24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AA24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -3838,7 +3892,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>68</v>
@@ -3865,64 +3919,64 @@
         <v>105</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="V25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Z25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Z25" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AA25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -3939,7 +3993,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>74</v>
@@ -3966,25 +4020,25 @@
         <v>105</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>105</v>
@@ -3996,34 +4050,34 @@
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -4040,7 +4094,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>76</v>
@@ -4067,25 +4121,25 @@
         <v>105</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>105</v>
@@ -4097,34 +4151,34 @@
         <v>105</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -4132,7 +4186,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -4141,7 +4195,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>75</v>
@@ -4168,25 +4222,25 @@
         <v>105</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>105</v>
@@ -4198,109 +4252,109 @@
         <v>105</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="Y29" s="1" t="s">
         <v>105</v>
       </c>
@@ -4311,43 +4365,43 @@
         <v>105</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
@@ -4370,25 +4424,25 @@
         <v>105</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="T30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>105</v>
@@ -4400,7 +4454,7 @@
         <v>105</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>105</v>
@@ -4412,123 +4466,426 @@
         <v>105</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R31" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T31" s="1" t="s">
+      <c r="T32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG31" s="1" t="s">
+      <c r="T33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>143</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F32C4-A236-48C6-8849-200E1A70A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C001C3-38D3-4842-9E6E-41BFBC8CC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="174">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -463,9 +463,6 @@
     <t>mark</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Road circle</t>
   </si>
   <si>
@@ -478,15 +475,9 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Start sign</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Stop sign</t>
   </si>
   <si>
@@ -514,15 +505,6 @@
     <t>Big tree 03</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>start_sign_mini.png</t>
   </si>
   <si>
@@ -553,7 +535,13 @@
     <t>big_tree_05_mini.png</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1079,6 +1067,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,35 +1599,35 @@
       <c r="J2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
       <c r="X2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
       <c r="AB2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1657,7 +1648,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>-1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1758,7 +1749,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>-1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1859,7 +1850,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>-1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1960,7 +1951,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>-1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2061,7 +2052,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2162,23 +2153,23 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
@@ -2202,13 +2193,13 @@
         <v>105</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>105</v>
@@ -2232,7 +2223,7 @@
         <v>105</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>105</v>
@@ -2244,7 +2235,7 @@
         <v>105</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>106</v>
@@ -2263,23 +2254,23 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
@@ -2296,20 +2287,20 @@
       <c r="K9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>105</v>
+      <c r="L9" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>105</v>
@@ -2364,23 +2355,23 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -2404,13 +2395,13 @@
         <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>105</v>
@@ -2461,57 +2452,57 @@
         <v>106</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>112</v>
+      <c r="L11" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>105</v>
@@ -2535,19 +2526,19 @@
         <v>105</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>106</v>
@@ -2562,39 +2553,39 @@
         <v>106</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>105</v>
@@ -2606,13 +2597,13 @@
         <v>105</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>105</v>
@@ -2636,19 +2627,19 @@
         <v>105</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>106</v>
@@ -2667,35 +2658,35 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>105</v>
@@ -2707,13 +2698,13 @@
         <v>105</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>105</v>
@@ -2737,19 +2728,19 @@
         <v>105</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>106</v>
@@ -2768,35 +2759,35 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>105</v>
@@ -2808,13 +2799,13 @@
         <v>105</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>105</v>
@@ -2838,19 +2829,19 @@
         <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>106</v>
@@ -2869,35 +2860,35 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>105</v>
@@ -2909,13 +2900,13 @@
         <v>105</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>105</v>
@@ -2939,19 +2930,19 @@
         <v>105</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>106</v>
@@ -2970,35 +2961,35 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>105</v>
@@ -3010,13 +3001,13 @@
         <v>105</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>105</v>
@@ -3040,19 +3031,19 @@
         <v>105</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>106</v>
@@ -3071,35 +3062,35 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>105</v>
@@ -3134,26 +3125,26 @@
       <c r="U17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>105</v>
+      <c r="V17" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>106</v>
@@ -3172,35 +3163,35 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>105</v>
@@ -3235,26 +3226,26 @@
       <c r="U18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>105</v>
+      <c r="V18" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>106</v>
@@ -3273,35 +3264,35 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>105</v>
@@ -3336,26 +3327,26 @@
       <c r="U19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>105</v>
+      <c r="V19" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>106</v>
@@ -3374,35 +3365,35 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>105</v>
@@ -3444,19 +3435,19 @@
         <v>105</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>106</v>
@@ -3475,35 +3466,35 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>105</v>
@@ -3545,19 +3536,19 @@
         <v>105</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>106</v>
@@ -3576,35 +3567,35 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>105</v>
@@ -3646,19 +3637,19 @@
         <v>105</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>106</v>
@@ -3677,35 +3668,35 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>105</v>
@@ -3717,13 +3708,13 @@
         <v>105</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>105</v>
@@ -3740,26 +3731,26 @@
       <c r="U23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>120</v>
+      <c r="V23" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>106</v>
@@ -3778,35 +3769,35 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>105</v>
@@ -3818,13 +3809,13 @@
         <v>105</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>105</v>
@@ -3841,26 +3832,26 @@
       <c r="U24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>120</v>
+      <c r="V24" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>106</v>
@@ -3879,35 +3870,35 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>105</v>
@@ -3919,13 +3910,13 @@
         <v>105</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>105</v>
@@ -3942,26 +3933,26 @@
       <c r="U25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>120</v>
+      <c r="V25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>106</v>
@@ -3980,35 +3971,35 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="7">
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>105</v>
@@ -4020,13 +4011,13 @@
         <v>105</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>105</v>
@@ -4050,19 +4041,19 @@
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>106</v>
@@ -4081,35 +4072,35 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>105</v>
@@ -4121,13 +4112,13 @@
         <v>105</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>105</v>
@@ -4151,19 +4142,19 @@
         <v>105</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>106</v>
@@ -4182,35 +4173,35 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>105</v>
@@ -4222,13 +4213,13 @@
         <v>105</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>105</v>
@@ -4252,19 +4243,19 @@
         <v>105</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>106</v>
@@ -4283,23 +4274,23 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>147</v>
+      <c r="A29" s="6">
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>42</v>
@@ -4323,13 +4314,13 @@
         <v>105</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>105</v>
@@ -4353,7 +4344,7 @@
         <v>105</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>105</v>
@@ -4365,7 +4356,7 @@
         <v>105</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>106</v>
@@ -4384,53 +4375,53 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>152</v>
+      <c r="A30" s="7">
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>105</v>
@@ -4454,7 +4445,7 @@
         <v>105</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>105</v>
@@ -4466,7 +4457,7 @@
         <v>105</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>106</v>
@@ -4485,23 +4476,23 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>154</v>
+      <c r="A31" s="6">
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>42</v>
@@ -4525,13 +4516,13 @@
         <v>105</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>105</v>
@@ -4555,7 +4546,7 @@
         <v>105</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>105</v>
@@ -4567,7 +4558,7 @@
         <v>105</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>106</v>
@@ -4586,23 +4577,23 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>164</v>
+      <c r="A32" s="7">
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>42</v>
@@ -4626,13 +4617,13 @@
         <v>105</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>105</v>
@@ -4687,23 +4678,23 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>165</v>
+      <c r="A33" s="6">
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>42</v>
@@ -4788,53 +4779,53 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>166</v>
+      <c r="A34" s="7">
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="O34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>105</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C001C3-38D3-4842-9E6E-41BFBC8CC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0106B3E-4733-4BA0-8220-EA24E70C64EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="176">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>0.25</t>
+  </si>
+  <si>
+    <t>Delete button</t>
+  </si>
+  <si>
+    <t>delete_mini.png</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,16 +1961,16 @@
         <v>-1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
@@ -2052,23 +2058,23 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>1</v>
+      <c r="A7" s="5">
+        <v>-1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
@@ -2083,93 +2089,93 @@
         <v>42</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>2</v>
+      <c r="A8" s="6">
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
@@ -2193,13 +2199,13 @@
         <v>105</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>105</v>
@@ -2223,7 +2229,7 @@
         <v>105</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>105</v>
@@ -2235,7 +2241,7 @@
         <v>105</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>106</v>
@@ -2254,23 +2260,23 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>3</v>
+      <c r="A9" s="7">
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
@@ -2287,20 +2293,20 @@
       <c r="K9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>112</v>
+      <c r="L9" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>105</v>
@@ -2324,7 +2330,7 @@
         <v>105</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>105</v>
@@ -2336,7 +2342,7 @@
         <v>105</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>106</v>
@@ -2355,23 +2361,23 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>4</v>
+      <c r="A10" s="6">
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -2395,13 +2401,13 @@
         <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>105</v>
@@ -2452,57 +2458,57 @@
         <v>106</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>5</v>
+      <c r="A11" s="7">
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>105</v>
+      <c r="L11" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>105</v>
@@ -2526,19 +2532,19 @@
         <v>105</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>106</v>
@@ -2553,15 +2559,15 @@
         <v>106</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>6</v>
+      <c r="A12" s="6">
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -2570,22 +2576,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>105</v>
@@ -2658,11 +2664,11 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>7</v>
+      <c r="A13" s="7">
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -2671,22 +2677,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>105</v>
@@ -2759,35 +2765,35 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>8</v>
+      <c r="A14" s="6">
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>105</v>
@@ -2831,8 +2837,8 @@
       <c r="X14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>105</v>
+      <c r="Y14" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>109</v>
@@ -2860,11 +2866,11 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>9</v>
+      <c r="A15" s="7">
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -2873,22 +2879,22 @@
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>105</v>
@@ -2961,11 +2967,11 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>10</v>
+      <c r="A16" s="6">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2974,22 +2980,22 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>105</v>
@@ -3062,35 +3068,35 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>11</v>
+      <c r="A17" s="7">
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>105</v>
@@ -3125,26 +3131,26 @@
       <c r="U17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>120</v>
+      <c r="V17" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>106</v>
@@ -3163,11 +3169,11 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>12</v>
+      <c r="A18" s="6">
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -3176,22 +3182,22 @@
         <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>105</v>
@@ -3264,11 +3270,11 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>13</v>
+      <c r="A19" s="7">
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -3277,22 +3283,22 @@
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>105</v>
@@ -3365,35 +3371,35 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>14</v>
+      <c r="A20" s="6">
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>105</v>
@@ -3428,8 +3434,8 @@
       <c r="U20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>105</v>
+      <c r="V20" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>105</v>
@@ -3437,11 +3443,11 @@
       <c r="X20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>105</v>
+      <c r="Y20" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>105</v>
@@ -3466,11 +3472,11 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>15</v>
+      <c r="A21" s="7">
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -3479,22 +3485,22 @@
         <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>105</v>
@@ -3567,11 +3573,11 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>16</v>
+      <c r="A22" s="6">
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -3580,22 +3586,22 @@
         <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>105</v>
@@ -3668,35 +3674,35 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>17</v>
+      <c r="A23" s="7">
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>105</v>
@@ -3708,13 +3714,13 @@
         <v>105</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>105</v>
@@ -3738,19 +3744,19 @@
         <v>105</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>106</v>
@@ -3769,11 +3775,11 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>18</v>
+      <c r="A24" s="6">
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
@@ -3782,10 +3788,10 @@
         <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
@@ -3870,23 +3876,23 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>19</v>
+      <c r="A25" s="7">
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>42</v>
@@ -3910,13 +3916,13 @@
         <v>105</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>105</v>
@@ -3940,7 +3946,7 @@
         <v>105</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>105</v>
@@ -3952,7 +3958,7 @@
         <v>105</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>106</v>
@@ -3971,23 +3977,23 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>20</v>
+      <c r="A26" s="6">
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -4072,23 +4078,23 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>21</v>
+      <c r="A27" s="7">
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>42</v>
@@ -4173,23 +4179,23 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>22</v>
+      <c r="A28" s="6">
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>42</v>
@@ -4274,23 +4280,23 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>23</v>
+      <c r="A29" s="7">
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>42</v>
@@ -4375,23 +4381,23 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>24</v>
+      <c r="A30" s="6">
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>42</v>
@@ -4415,13 +4421,13 @@
         <v>105</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>105</v>
@@ -4476,23 +4482,23 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>25</v>
+      <c r="A31" s="7">
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>42</v>
@@ -4516,13 +4522,13 @@
         <v>105</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>105</v>
@@ -4577,23 +4583,23 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>26</v>
+      <c r="A32" s="6">
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>42</v>
@@ -4678,23 +4684,23 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>27</v>
+      <c r="A33" s="7">
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>42</v>
@@ -4718,13 +4724,13 @@
         <v>105</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>105</v>
@@ -4779,23 +4785,23 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>28</v>
+      <c r="A34" s="6">
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>42</v>
@@ -4819,13 +4825,13 @@
         <v>105</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>105</v>
@@ -4876,6 +4882,107 @@
         <v>106</v>
       </c>
       <c r="AG34" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG35" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0106B3E-4733-4BA0-8220-EA24E70C64EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B1AE1-7683-453A-818F-BC9CB8F7A7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="178">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>delete_mini.png</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2196,7 +2202,7 @@
         <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>116</v>
@@ -3806,7 +3812,7 @@
         <v>42</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>105</v>
@@ -3907,7 +3913,7 @@
         <v>42</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>105</v>
@@ -4008,7 +4014,7 @@
         <v>42</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>105</v>
@@ -4109,7 +4115,7 @@
         <v>42</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>105</v>
@@ -4210,7 +4216,7 @@
         <v>42</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>105</v>
@@ -4311,7 +4317,7 @@
         <v>42</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>105</v>
@@ -4412,7 +4418,7 @@
         <v>42</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>105</v>
@@ -4513,7 +4519,7 @@
         <v>42</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>105</v>
@@ -4614,7 +4620,7 @@
         <v>42</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>105</v>
@@ -4715,7 +4721,7 @@
         <v>42</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>105</v>
@@ -4816,7 +4822,7 @@
         <v>42</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>105</v>
@@ -4917,7 +4923,7 @@
         <v>42</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>105</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B1AE1-7683-453A-818F-BC9CB8F7A7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED66F7-CCAF-4787-BB43-845EAA80F5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="180">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>55.0</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>controls.png</t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,23 +2171,23 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1</v>
+      <c r="A8" s="5">
+        <v>-1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
@@ -2196,93 +2202,93 @@
         <v>42</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
+      <c r="A9" s="6">
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
@@ -2303,16 +2309,16 @@
         <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>105</v>
@@ -2336,7 +2342,7 @@
         <v>105</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>105</v>
@@ -2348,7 +2354,7 @@
         <v>105</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>106</v>
@@ -2367,23 +2373,23 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>3</v>
+      <c r="A10" s="7">
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -2400,20 +2406,20 @@
       <c r="K10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>112</v>
+      <c r="L10" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>105</v>
@@ -2437,7 +2443,7 @@
         <v>105</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>105</v>
@@ -2449,7 +2455,7 @@
         <v>105</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>106</v>
@@ -2468,23 +2474,23 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>4</v>
+      <c r="A11" s="6">
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -2508,13 +2514,13 @@
         <v>105</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>105</v>
@@ -2565,57 +2571,57 @@
         <v>106</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>5</v>
+      <c r="A12" s="7">
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>105</v>
+      <c r="L12" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>105</v>
@@ -2639,19 +2645,19 @@
         <v>105</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>106</v>
@@ -2666,15 +2672,15 @@
         <v>106</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>6</v>
+      <c r="A13" s="6">
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -2683,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>105</v>
@@ -2771,11 +2777,11 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>7</v>
+      <c r="A14" s="7">
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -2784,22 +2790,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>105</v>
@@ -2872,35 +2878,35 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>8</v>
+      <c r="A15" s="6">
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>105</v>
@@ -2944,8 +2950,8 @@
       <c r="X15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>105</v>
+      <c r="Y15" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>109</v>
@@ -2973,11 +2979,11 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>9</v>
+      <c r="A16" s="7">
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2986,22 +2992,22 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>105</v>
@@ -3074,11 +3080,11 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>10</v>
+      <c r="A17" s="6">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -3087,22 +3093,22 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>105</v>
@@ -3175,35 +3181,35 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>11</v>
+      <c r="A18" s="7">
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>105</v>
@@ -3238,26 +3244,26 @@
       <c r="U18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>120</v>
+      <c r="V18" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>106</v>
@@ -3276,11 +3282,11 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>12</v>
+      <c r="A19" s="6">
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -3289,22 +3295,22 @@
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>105</v>
@@ -3377,11 +3383,11 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>13</v>
+      <c r="A20" s="7">
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -3390,22 +3396,22 @@
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>105</v>
@@ -3478,35 +3484,35 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>14</v>
+      <c r="A21" s="6">
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>105</v>
@@ -3541,8 +3547,8 @@
       <c r="U21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>105</v>
+      <c r="V21" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>105</v>
@@ -3550,11 +3556,11 @@
       <c r="X21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>105</v>
+      <c r="Y21" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>105</v>
@@ -3579,11 +3585,11 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>15</v>
+      <c r="A22" s="7">
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -3592,22 +3598,22 @@
         <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>105</v>
@@ -3680,11 +3686,11 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>16</v>
+      <c r="A23" s="6">
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -3693,22 +3699,22 @@
         <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>105</v>
@@ -3781,38 +3787,38 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>17</v>
+      <c r="A24" s="7">
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>105</v>
@@ -3821,13 +3827,13 @@
         <v>105</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>105</v>
@@ -3851,19 +3857,19 @@
         <v>105</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>106</v>
@@ -3882,11 +3888,11 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>18</v>
+      <c r="A25" s="6">
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
@@ -3895,10 +3901,10 @@
         <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>42</v>
@@ -3983,23 +3989,23 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>19</v>
+      <c r="A26" s="7">
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -4023,13 +4029,13 @@
         <v>105</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>105</v>
@@ -4053,7 +4059,7 @@
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>105</v>
@@ -4065,7 +4071,7 @@
         <v>105</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>106</v>
@@ -4084,23 +4090,23 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>20</v>
+      <c r="A27" s="6">
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>42</v>
@@ -4185,23 +4191,23 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>21</v>
+      <c r="A28" s="7">
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>42</v>
@@ -4286,23 +4292,23 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>22</v>
+      <c r="A29" s="6">
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>42</v>
@@ -4387,23 +4393,23 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>23</v>
+      <c r="A30" s="7">
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>42</v>
@@ -4488,23 +4494,23 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>24</v>
+      <c r="A31" s="6">
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>42</v>
@@ -4528,13 +4534,13 @@
         <v>105</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>105</v>
@@ -4589,23 +4595,23 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>25</v>
+      <c r="A32" s="7">
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>42</v>
@@ -4629,13 +4635,13 @@
         <v>105</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>105</v>
@@ -4690,23 +4696,23 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>26</v>
+      <c r="A33" s="6">
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>42</v>
@@ -4791,23 +4797,23 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>27</v>
+      <c r="A34" s="7">
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>42</v>
@@ -4831,13 +4837,13 @@
         <v>105</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>105</v>
@@ -4892,23 +4898,23 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>28</v>
+      <c r="A35" s="6">
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>42</v>
@@ -4932,13 +4938,13 @@
         <v>105</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>105</v>
@@ -4989,6 +4995,107 @@
         <v>106</v>
       </c>
       <c r="AG35" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG36" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED66F7-CCAF-4787-BB43-845EAA80F5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56032FB1-5D94-4440-9B3F-90B517BCB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="181">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>controls.png</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2443,7 +2446,7 @@
         <v>105</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>105</v>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56032FB1-5D94-4440-9B3F-90B517BCB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CCD901-DD21-487C-8EF8-516D94D8B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d_object_library" sheetId="1" r:id="rId1"/>
@@ -382,9 +382,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>-0.9</t>
-  </si>
-  <si>
     <t>-1.0</t>
   </si>
   <si>
@@ -563,6 +560,9 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.5</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
@@ -1653,19 +1653,19 @@
         <v>115</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="AG2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>42</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
         <v>42</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -1968,7 +1968,7 @@
         <v>42</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
         <v>-1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1985,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
@@ -2069,7 +2069,7 @@
         <v>42</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>42</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -2178,13 +2178,13 @@
         <v>-1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
@@ -2271,7 +2271,7 @@
         <v>42</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>51</v>
@@ -2312,7 +2312,7 @@
         <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>116</v>
@@ -2327,13 +2327,13 @@
         <v>105</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>105</v>
@@ -2357,7 +2357,7 @@
         <v>105</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>106</v>
@@ -2372,7 +2372,7 @@
         <v>106</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -2380,86 +2380,86 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AC10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>106</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -2484,7 +2484,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
@@ -2529,13 +2529,13 @@
         <v>105</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>105</v>
@@ -2574,7 +2574,7 @@
         <v>106</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -2630,13 +2630,13 @@
         <v>105</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>105</v>
@@ -2675,7 +2675,7 @@
         <v>106</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -2731,13 +2731,13 @@
         <v>105</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>105</v>
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -2832,13 +2832,13 @@
         <v>105</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>105</v>
@@ -2877,7 +2877,7 @@
         <v>106</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
@@ -2933,13 +2933,13 @@
         <v>105</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>105</v>
@@ -2978,7 +2978,7 @@
         <v>106</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>53</v>
@@ -3034,16 +3034,16 @@
         <v>105</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>105</v>
@@ -3079,7 +3079,7 @@
         <v>106</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -3096,7 +3096,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>54</v>
@@ -3135,16 +3135,16 @@
         <v>105</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>105</v>
@@ -3180,7 +3180,7 @@
         <v>106</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -3236,16 +3236,16 @@
         <v>105</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>105</v>
@@ -3281,7 +3281,7 @@
         <v>106</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -3298,7 +3298,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>66</v>
@@ -3337,19 +3337,19 @@
         <v>105</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>120</v>
+      <c r="V19" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>105</v>
@@ -3358,10 +3358,10 @@
         <v>119</v>
       </c>
       <c r="Y19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>105</v>
@@ -3382,7 +3382,7 @@
         <v>106</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -3399,7 +3399,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>67</v>
@@ -3438,19 +3438,19 @@
         <v>105</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>120</v>
+      <c r="V20" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>105</v>
@@ -3459,10 +3459,10 @@
         <v>119</v>
       </c>
       <c r="Y20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>105</v>
@@ -3483,7 +3483,7 @@
         <v>106</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -3500,7 +3500,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>68</v>
@@ -3539,19 +3539,19 @@
         <v>105</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>120</v>
+      <c r="V21" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>105</v>
@@ -3560,10 +3560,10 @@
         <v>119</v>
       </c>
       <c r="Y21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>105</v>
@@ -3584,7 +3584,7 @@
         <v>106</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -3601,7 +3601,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>74</v>
@@ -3640,13 +3640,13 @@
         <v>105</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>105</v>
@@ -3685,7 +3685,7 @@
         <v>106</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>76</v>
@@ -3741,13 +3741,13 @@
         <v>105</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>105</v>
@@ -3786,7 +3786,7 @@
         <v>106</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>75</v>
@@ -3842,13 +3842,13 @@
         <v>105</v>
       </c>
       <c r="R24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>105</v>
@@ -3887,7 +3887,7 @@
         <v>106</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -3895,20 +3895,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>42</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>105</v>
@@ -3943,13 +3943,13 @@
         <v>105</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>105</v>
@@ -3961,7 +3961,7 @@
         <v>105</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>105</v>
@@ -3973,7 +3973,7 @@
         <v>105</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>106</v>
@@ -3988,7 +3988,7 @@
         <v>106</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -3996,19 +3996,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -4023,7 +4023,7 @@
         <v>42</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>105</v>
@@ -4044,13 +4044,13 @@
         <v>105</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>105</v>
@@ -4062,7 +4062,7 @@
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>105</v>
@@ -4074,7 +4074,7 @@
         <v>105</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>106</v>
@@ -4089,7 +4089,7 @@
         <v>106</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -4124,7 +4124,7 @@
         <v>42</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>105</v>
@@ -4145,13 +4145,13 @@
         <v>105</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>105</v>
@@ -4190,7 +4190,7 @@
         <v>106</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -4225,7 +4225,7 @@
         <v>42</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>105</v>
@@ -4246,13 +4246,13 @@
         <v>105</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>105</v>
@@ -4291,7 +4291,7 @@
         <v>106</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>42</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>105</v>
@@ -4347,13 +4347,13 @@
         <v>105</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>105</v>
@@ -4392,7 +4392,7 @@
         <v>106</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -4427,7 +4427,7 @@
         <v>42</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>105</v>
@@ -4448,13 +4448,13 @@
         <v>105</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>105</v>
@@ -4493,7 +4493,7 @@
         <v>106</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -4528,7 +4528,7 @@
         <v>42</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>105</v>
@@ -4549,13 +4549,13 @@
         <v>105</v>
       </c>
       <c r="R31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>105</v>
@@ -4594,7 +4594,7 @@
         <v>106</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
@@ -4629,7 +4629,7 @@
         <v>42</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>105</v>
@@ -4638,25 +4638,25 @@
         <v>105</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>105</v>
@@ -4695,7 +4695,7 @@
         <v>106</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
@@ -4730,7 +4730,7 @@
         <v>42</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>105</v>
@@ -4739,25 +4739,25 @@
         <v>105</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>105</v>
@@ -4796,7 +4796,7 @@
         <v>106</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
@@ -4804,19 +4804,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>42</v>
@@ -4831,7 +4831,7 @@
         <v>42</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>105</v>
@@ -4840,25 +4840,25 @@
         <v>105</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>105</v>
@@ -4897,7 +4897,7 @@
         <v>106</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
@@ -4905,19 +4905,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>42</v>
@@ -4932,7 +4932,7 @@
         <v>42</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>105</v>
@@ -4941,25 +4941,25 @@
         <v>105</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>105</v>
@@ -4998,7 +4998,7 @@
         <v>106</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
@@ -5006,61 +5006,61 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="O36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>105</v>
@@ -5099,7 +5099,7 @@
         <v>106</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CCD901-DD21-487C-8EF8-516D94D8B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E3149-2EC4-4CB0-A2C7-B2435A1EBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="185">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>-0.5</t>
+  </si>
+  <si>
+    <t>Bundus</t>
+  </si>
+  <si>
+    <t>bundus.png</t>
+  </si>
+  <si>
+    <t>ELTE</t>
+  </si>
+  <si>
+    <t>elte.png</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2178,13 +2190,13 @@
         <v>-1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
@@ -2275,23 +2287,23 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
+      <c r="A9" s="5">
+        <v>-1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
@@ -2306,93 +2318,93 @@
         <v>42</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>2</v>
+      <c r="A10" s="5">
+        <v>-1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -2407,70 +2419,70 @@
         <v>42</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>141</v>
@@ -2478,22 +2490,22 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -2510,20 +2522,20 @@
       <c r="K11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>112</v>
+      <c r="L11" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>105</v>
@@ -2547,7 +2559,7 @@
         <v>105</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>105</v>
@@ -2559,7 +2571,7 @@
         <v>105</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>106</v>
@@ -2579,22 +2591,22 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>42</v>
@@ -2611,20 +2623,20 @@
       <c r="K12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>112</v>
+      <c r="L12" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>105</v>
@@ -2648,7 +2660,7 @@
         <v>105</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>105</v>
@@ -2660,7 +2672,7 @@
         <v>105</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>106</v>
@@ -2675,57 +2687,57 @@
         <v>106</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>105</v>
+      <c r="L13" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>105</v>
@@ -2749,19 +2761,19 @@
         <v>105</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>106</v>
@@ -2781,52 +2793,52 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>105</v>
+      <c r="L14" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>105</v>
@@ -2850,19 +2862,19 @@
         <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>106</v>
@@ -2877,15 +2889,15 @@
         <v>106</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -2894,22 +2906,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>105</v>
@@ -2983,34 +2995,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>105</v>
@@ -3043,7 +3055,7 @@
         <v>141</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>105</v>
@@ -3054,8 +3066,8 @@
       <c r="X16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>105</v>
+      <c r="Y16" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>109</v>
@@ -3084,34 +3096,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>105</v>
@@ -3144,7 +3156,7 @@
         <v>141</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>105</v>
@@ -3155,8 +3167,8 @@
       <c r="X17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>105</v>
+      <c r="Y17" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>109</v>
@@ -3185,10 +3197,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -3197,22 +3209,22 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>105</v>
@@ -3286,34 +3298,34 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>105</v>
@@ -3346,7 +3358,7 @@
         <v>141</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>105</v>
@@ -3355,19 +3367,19 @@
         <v>105</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>106</v>
@@ -3387,34 +3399,34 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>105</v>
@@ -3447,7 +3459,7 @@
         <v>141</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>105</v>
@@ -3456,19 +3468,19 @@
         <v>105</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>106</v>
@@ -3488,10 +3500,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -3500,22 +3512,22 @@
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>105</v>
@@ -3589,34 +3601,34 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>105</v>
@@ -3660,11 +3672,11 @@
       <c r="X22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>105</v>
+      <c r="Y22" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>105</v>
@@ -3690,34 +3702,34 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>105</v>
@@ -3761,11 +3773,11 @@
       <c r="X23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>105</v>
+      <c r="Y23" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>105</v>
@@ -3791,10 +3803,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -3803,22 +3815,22 @@
         <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>105</v>
@@ -3892,37 +3904,37 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>105</v>
@@ -3931,13 +3943,13 @@
         <v>105</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>105</v>
@@ -3961,19 +3973,19 @@
         <v>105</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>106</v>
@@ -3993,37 +4005,37 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>105</v>
@@ -4032,13 +4044,13 @@
         <v>105</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>105</v>
@@ -4062,19 +4074,19 @@
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>106</v>
@@ -4094,22 +4106,22 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>42</v>
@@ -4133,13 +4145,13 @@
         <v>105</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>105</v>
@@ -4163,7 +4175,7 @@
         <v>105</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>105</v>
@@ -4175,7 +4187,7 @@
         <v>105</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>106</v>
@@ -4195,22 +4207,22 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>42</v>
@@ -4234,13 +4246,13 @@
         <v>105</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>105</v>
@@ -4264,7 +4276,7 @@
         <v>105</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>105</v>
@@ -4276,7 +4288,7 @@
         <v>105</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>106</v>
@@ -4296,22 +4308,22 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>42</v>
@@ -4397,22 +4409,22 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>42</v>
@@ -4498,22 +4510,22 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>42</v>
@@ -4599,22 +4611,22 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>42</v>
@@ -4638,13 +4650,13 @@
         <v>105</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>105</v>
@@ -4700,22 +4712,22 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>42</v>
@@ -4739,13 +4751,13 @@
         <v>105</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>105</v>
@@ -4801,22 +4813,22 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>42</v>
@@ -4840,13 +4852,13 @@
         <v>105</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>105</v>
@@ -4902,22 +4914,22 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>42</v>
@@ -4941,13 +4953,13 @@
         <v>105</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>105</v>
@@ -5003,22 +5015,22 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>42</v>
@@ -5042,13 +5054,13 @@
         <v>105</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>105</v>
@@ -5099,6 +5111,208 @@
         <v>106</v>
       </c>
       <c r="AG36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG38" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/TrafficSimulator/3Dobjects/3d_object_library.xlsx
+++ b/TrafficSimulator/3Dobjects/3d_object_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandorbalazs\Desktop\elte-ik-bsc-thesis\TrafficSimulator\3Dobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E3149-2EC4-4CB0-A2C7-B2435A1EBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C16131-67DB-4AD5-B47E-B7C53971C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="191">
   <si>
     <t>little_car.obj</t>
   </si>
@@ -575,6 +575,24 @@
   </si>
   <si>
     <t>elte.png</t>
+  </si>
+  <si>
+    <t>Help 01</t>
+  </si>
+  <si>
+    <t>help_01.png</t>
+  </si>
+  <si>
+    <t>Help 02</t>
+  </si>
+  <si>
+    <t>Help 03</t>
+  </si>
+  <si>
+    <t>help_03.png</t>
+  </si>
+  <si>
+    <t>help_02.png</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,23 +2507,23 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>1</v>
+      <c r="A11" s="5">
+        <v>-1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -2520,93 +2538,93 @@
         <v>42</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>2</v>
+      <c r="A12" s="5">
+        <v>-1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>42</v>
@@ -2621,93 +2639,93 @@
         <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>3</v>
+      <c r="A13" s="5">
+        <v>-1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>42</v>
@@ -2722,93 +2740,93 @@
         <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>4</v>
+      <c r="A14" s="6">
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>42</v>
@@ -2825,20 +2843,20 @@
       <c r="K14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>112</v>
+      <c r="L14" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>105</v>
@@ -2862,7 +2880,7 @@
         <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>105</v>
@@ -2874,7 +2892,7 @@
         <v>105</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>106</v>
@@ -2889,39 +2907,39 @@
         <v>106</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>5</v>
+      <c r="A15" s="7">
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>105</v>
@@ -2963,19 +2981,19 @@
         <v>105</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>118</v>
+        <v>179</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>106</v>
@@ -2994,53 +3012,53 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>6</v>
+      <c r="A16" s="6">
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>105</v>
+      <c r="L16" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>105</v>
@@ -3064,19 +3082,19 @@
         <v>105</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>106</v>
@@ -3095,53 +3113,53 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>7</v>
+      <c r="A17" s="7">
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>105</v>
+      <c r="L17" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>105</v>
@@ -3165,19 +3183,19 @@
         <v>105</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>106</v>
@@ -3192,39 +3210,39 @@
         <v>106</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>8</v>
+      <c r="A18" s="6">
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>105</v>
@@ -3257,7 +3275,7 @@
         <v>141</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>105</v>
@@ -3268,8 +3286,8 @@
       <c r="X18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>105</v>
+      <c r="Y18" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>109</v>
@@ -3297,35 +3315,35 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>9</v>
+      <c r="A19" s="7">
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>105</v>
@@ -3358,7 +3376,7 @@
         <v>141</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>105</v>
@@ -3369,8 +3387,8 @@
       <c r="X19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>105</v>
+      <c r="Y19" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>109</v>
@@ -3398,35 +3416,35 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>10</v>
+      <c r="A20" s="6">
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>105</v>
@@ -3459,7 +3477,7 @@
         <v>141</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>105</v>
@@ -3470,8 +3488,8 @@
       <c r="X20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>105</v>
+      <c r="Y20" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>109</v>
@@ -3499,35 +3517,35 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>11</v>
+      <c r="A21" s="7">
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>105</v>
@@ -3560,7 +3578,7 @@
         <v>141</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>105</v>
@@ -3569,19 +3587,19 @@
         <v>105</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>106</v>
@@ -3600,35 +3618,35 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>12</v>
+      <c r="A22" s="6">
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>105</v>
@@ -3661,7 +3679,7 @@
         <v>141</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>105</v>
@@ -3670,19 +3688,19 @@
         <v>105</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>106</v>
@@ -3701,35 +3719,35 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>13</v>
+      <c r="A23" s="7">
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>105</v>
@@ -3762,7 +3780,7 @@
         <v>141</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>105</v>
@@ -3771,19 +3789,19 @@
         <v>105</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>106</v>
@@ -3802,35 +3820,35 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>14</v>
+      <c r="A24" s="6">
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>105</v>
@@ -3874,11 +3892,11 @@
       <c r="X24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y24" s="1" t="s">
-        <v>105</v>
+      <c r="Y24" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>105</v>
@@ -3903,35 +3921,35 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>15</v>
+      <c r="A25" s="7">
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>105</v>
@@ -3975,11 +3993,11 @@
       <c r="X25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>105</v>
+      <c r="Y25" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>105</v>
@@ -4004,35 +4022,35 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>16</v>
+      <c r="A26" s="6">
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>105</v>
@@ -4076,11 +4094,11 @@
       <c r="X26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y26" s="1" t="s">
-        <v>105</v>
+      <c r="Y26" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>105</v>
@@ -4105,38 +4123,38 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>17</v>
+      <c r="A27" s="7">
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>105</v>
@@ -4145,13 +4163,13 @@
         <v>105</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>105</v>
@@ -4175,19 +4193,19 @@
         <v>105</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>106</v>
@@ -4206,38 +4224,38 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>18</v>
+      <c r="A28" s="6">
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>105</v>
@@ -4246,13 +4264,13 @@
         <v>105</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>105</v>
@@ -4276,19 +4294,19 @@
         <v>105</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>106</v>
@@ -4307,38 +4325,38 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>19</v>
+      <c r="A29" s="7">
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>105</v>
@@ -4347,13 +4365,13 @@
         <v>105</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>105</v>
@@ -4377,19 +4395,19 @@
         <v>105</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>105</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>106</v>
@@ -4408,23 +4426,23 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>20</v>
+      <c r="A30" s="6">
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>42</v>
@@ -4448,13 +4466,13 @@
         <v>105</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>105</v>
@@ -4478,7 +4496,7 @@
         <v>105</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>105</v>
@@ -4490,7 +4508,7 @@
         <v>105</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>106</v>
@@ -4509,23 +4527,23 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>21</v>
+      <c r="A31" s="7">
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>42</v>
@@ -4549,13 +4567,13 @@
         <v>105</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>105</v>
@@ -4579,7 +4597,7 @@
         <v>105</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>105</v>
@@ -4591,7 +4609,7 @@
         <v>105</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>106</v>
@@ -4610,23 +4628,23 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>22</v>
+      <c r="A32" s="6">
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>42</v>
@@ -4711,23 +4729,23 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>23</v>
+      <c r="A33" s="7">
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>42</v>
@@ -4812,23 +4830,23 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>24</v>
+      <c r="A34" s="6">
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>42</v>
@@ -4852,13 +4870,13 @@
         <v>105</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>105</v>
@@ -4913,23 +4931,23 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>25</v>
+      <c r="A35" s="7">
+        <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>42</v>
@@ -4953,13 +4971,13 @@
         <v>105</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>105</v>
@@ -5014,23 +5032,23 @@
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>26</v>
+      <c r="A36" s="6">
+        <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>42</v>
@@ -5054,13 +5072,13 @@
         <v>105</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>105</v>
@@ -5115,23 +5133,23 @@
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>27</v>
+      <c r="A37" s="7">
+        <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>42</v>
@@ -5155,13 +5173,13 @@
         <v>105</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>105</v>
@@ -5216,23 +5234,23 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>28</v>
+      <c r="A38" s="6">
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>42</v>
@@ -5256,13 +5274,13 @@
         <v>105</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>105</v>
@@ -5313,6 +5331,309 @@
         <v>106</v>
       </c>
       <c r="AG38" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG41" s="1" t="s">
         <v>141</v>
       </c>
     </row>
